--- a/lte-frontend/public/tbprb模板.xlsx
+++ b/lte-frontend/public/tbprb模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16402\Documents\Tencent Files\1640237630\FileRecv\MobileFile\实验数据和指导书\xxx地区TD-LTE网络数据\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C86E7A6-2836-4A47-AFF8-492389F98FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AEE5B7-4E5A-45E9-80F7-A88F87026467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
-  <si>
-    <t>ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>起始时间</t>
   </si>
@@ -738,22 +735,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DA2"/>
+  <dimension ref="A1:CZ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="120" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="105" width="10" customWidth="1"/>
+    <col min="1" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="120" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="104" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:105" ht="139.19999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:104" ht="139.19999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1066,11 +1062,11 @@
       <c r="CZ1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:104" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="2" spans="1:105" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>105</v>
       </c>
@@ -1080,263 +1076,263 @@
       <c r="D2" t="s">
         <v>107</v>
       </c>
-      <c r="E2" t="s">
-        <v>108</v>
+      <c r="E2">
+        <v>-108</v>
       </c>
       <c r="F2">
-        <v>-108</v>
+        <v>-116</v>
       </c>
       <c r="G2">
+        <v>-117</v>
+      </c>
+      <c r="H2">
+        <v>-117</v>
+      </c>
+      <c r="I2">
+        <v>-117</v>
+      </c>
+      <c r="J2">
+        <v>-117</v>
+      </c>
+      <c r="K2">
+        <v>-117</v>
+      </c>
+      <c r="L2">
+        <v>-117</v>
+      </c>
+      <c r="M2">
+        <v>-118</v>
+      </c>
+      <c r="N2">
+        <v>-118</v>
+      </c>
+      <c r="O2">
+        <v>-118</v>
+      </c>
+      <c r="P2">
+        <v>-118</v>
+      </c>
+      <c r="Q2">
+        <v>-118</v>
+      </c>
+      <c r="R2">
+        <v>-118</v>
+      </c>
+      <c r="S2">
+        <v>-117</v>
+      </c>
+      <c r="T2">
         <v>-116</v>
       </c>
-      <c r="H2">
-        <v>-117</v>
-      </c>
-      <c r="I2">
-        <v>-117</v>
-      </c>
-      <c r="J2">
-        <v>-117</v>
-      </c>
-      <c r="K2">
-        <v>-117</v>
-      </c>
-      <c r="L2">
-        <v>-117</v>
-      </c>
-      <c r="M2">
-        <v>-117</v>
-      </c>
-      <c r="N2">
-        <v>-118</v>
-      </c>
-      <c r="O2">
-        <v>-118</v>
-      </c>
-      <c r="P2">
-        <v>-118</v>
-      </c>
-      <c r="Q2">
-        <v>-118</v>
-      </c>
-      <c r="R2">
-        <v>-118</v>
-      </c>
-      <c r="S2">
-        <v>-118</v>
-      </c>
-      <c r="T2">
-        <v>-117</v>
-      </c>
       <c r="U2">
+        <v>-117</v>
+      </c>
+      <c r="V2">
+        <v>-117</v>
+      </c>
+      <c r="W2">
+        <v>-117</v>
+      </c>
+      <c r="X2">
+        <v>-117</v>
+      </c>
+      <c r="Y2">
+        <v>-118</v>
+      </c>
+      <c r="Z2">
+        <v>-118</v>
+      </c>
+      <c r="AA2">
+        <v>-118</v>
+      </c>
+      <c r="AB2">
+        <v>-118</v>
+      </c>
+      <c r="AC2">
+        <v>-118</v>
+      </c>
+      <c r="AD2">
+        <v>-118</v>
+      </c>
+      <c r="AE2">
+        <v>-118</v>
+      </c>
+      <c r="AF2">
+        <v>-118</v>
+      </c>
+      <c r="AG2">
+        <v>-118</v>
+      </c>
+      <c r="AH2">
+        <v>-118</v>
+      </c>
+      <c r="AI2">
+        <v>-117</v>
+      </c>
+      <c r="AJ2">
+        <v>-117</v>
+      </c>
+      <c r="AK2">
+        <v>-117</v>
+      </c>
+      <c r="AL2">
+        <v>-117</v>
+      </c>
+      <c r="AM2">
+        <v>-117</v>
+      </c>
+      <c r="AN2">
+        <v>-117</v>
+      </c>
+      <c r="AO2">
+        <v>-117</v>
+      </c>
+      <c r="AP2">
+        <v>-117</v>
+      </c>
+      <c r="AQ2">
+        <v>-117</v>
+      </c>
+      <c r="AR2">
+        <v>-117</v>
+      </c>
+      <c r="AS2">
+        <v>-117</v>
+      </c>
+      <c r="AT2">
+        <v>-117</v>
+      </c>
+      <c r="AU2">
+        <v>-117</v>
+      </c>
+      <c r="AV2">
+        <v>-117</v>
+      </c>
+      <c r="AW2">
+        <v>-117</v>
+      </c>
+      <c r="AX2">
+        <v>-117</v>
+      </c>
+      <c r="AY2">
+        <v>-117</v>
+      </c>
+      <c r="AZ2">
+        <v>-117</v>
+      </c>
+      <c r="BA2">
+        <v>-117</v>
+      </c>
+      <c r="BB2">
+        <v>-117</v>
+      </c>
+      <c r="BC2">
+        <v>-117</v>
+      </c>
+      <c r="BD2">
+        <v>-117</v>
+      </c>
+      <c r="BE2">
+        <v>-117</v>
+      </c>
+      <c r="BF2">
+        <v>-117</v>
+      </c>
+      <c r="BG2">
+        <v>-117</v>
+      </c>
+      <c r="BH2">
+        <v>-117</v>
+      </c>
+      <c r="BI2">
+        <v>-117</v>
+      </c>
+      <c r="BJ2">
+        <v>-117</v>
+      </c>
+      <c r="BK2">
+        <v>-117</v>
+      </c>
+      <c r="BL2">
+        <v>-117</v>
+      </c>
+      <c r="BM2">
+        <v>-117</v>
+      </c>
+      <c r="BN2">
+        <v>-117</v>
+      </c>
+      <c r="BO2">
+        <v>-117</v>
+      </c>
+      <c r="BP2">
+        <v>-117</v>
+      </c>
+      <c r="BQ2">
+        <v>-117</v>
+      </c>
+      <c r="BR2">
+        <v>-117</v>
+      </c>
+      <c r="BS2">
+        <v>-117</v>
+      </c>
+      <c r="BT2">
+        <v>-117</v>
+      </c>
+      <c r="BU2">
+        <v>-117</v>
+      </c>
+      <c r="BV2">
+        <v>-117</v>
+      </c>
+      <c r="BW2">
+        <v>-117</v>
+      </c>
+      <c r="BX2">
+        <v>-117</v>
+      </c>
+      <c r="BY2">
+        <v>-117</v>
+      </c>
+      <c r="BZ2">
+        <v>-117</v>
+      </c>
+      <c r="CA2">
+        <v>-117</v>
+      </c>
+      <c r="CB2">
+        <v>-117</v>
+      </c>
+      <c r="CC2">
+        <v>-117</v>
+      </c>
+      <c r="CD2">
+        <v>-117</v>
+      </c>
+      <c r="CE2">
+        <v>-117</v>
+      </c>
+      <c r="CF2">
+        <v>-117</v>
+      </c>
+      <c r="CG2">
+        <v>-117</v>
+      </c>
+      <c r="CH2">
+        <v>-117</v>
+      </c>
+      <c r="CI2">
+        <v>-117</v>
+      </c>
+      <c r="CJ2">
+        <v>-117</v>
+      </c>
+      <c r="CK2">
         <v>-116</v>
       </c>
-      <c r="V2">
-        <v>-117</v>
-      </c>
-      <c r="W2">
-        <v>-117</v>
-      </c>
-      <c r="X2">
-        <v>-117</v>
-      </c>
-      <c r="Y2">
-        <v>-117</v>
-      </c>
-      <c r="Z2">
-        <v>-118</v>
-      </c>
-      <c r="AA2">
-        <v>-118</v>
-      </c>
-      <c r="AB2">
-        <v>-118</v>
-      </c>
-      <c r="AC2">
-        <v>-118</v>
-      </c>
-      <c r="AD2">
-        <v>-118</v>
-      </c>
-      <c r="AE2">
-        <v>-118</v>
-      </c>
-      <c r="AF2">
-        <v>-118</v>
-      </c>
-      <c r="AG2">
-        <v>-118</v>
-      </c>
-      <c r="AH2">
-        <v>-118</v>
-      </c>
-      <c r="AI2">
-        <v>-118</v>
-      </c>
-      <c r="AJ2">
-        <v>-117</v>
-      </c>
-      <c r="AK2">
-        <v>-117</v>
-      </c>
-      <c r="AL2">
-        <v>-117</v>
-      </c>
-      <c r="AM2">
-        <v>-117</v>
-      </c>
-      <c r="AN2">
-        <v>-117</v>
-      </c>
-      <c r="AO2">
-        <v>-117</v>
-      </c>
-      <c r="AP2">
-        <v>-117</v>
-      </c>
-      <c r="AQ2">
-        <v>-117</v>
-      </c>
-      <c r="AR2">
-        <v>-117</v>
-      </c>
-      <c r="AS2">
-        <v>-117</v>
-      </c>
-      <c r="AT2">
-        <v>-117</v>
-      </c>
-      <c r="AU2">
-        <v>-117</v>
-      </c>
-      <c r="AV2">
-        <v>-117</v>
-      </c>
-      <c r="AW2">
-        <v>-117</v>
-      </c>
-      <c r="AX2">
-        <v>-117</v>
-      </c>
-      <c r="AY2">
-        <v>-117</v>
-      </c>
-      <c r="AZ2">
-        <v>-117</v>
-      </c>
-      <c r="BA2">
-        <v>-117</v>
-      </c>
-      <c r="BB2">
-        <v>-117</v>
-      </c>
-      <c r="BC2">
-        <v>-117</v>
-      </c>
-      <c r="BD2">
-        <v>-117</v>
-      </c>
-      <c r="BE2">
-        <v>-117</v>
-      </c>
-      <c r="BF2">
-        <v>-117</v>
-      </c>
-      <c r="BG2">
-        <v>-117</v>
-      </c>
-      <c r="BH2">
-        <v>-117</v>
-      </c>
-      <c r="BI2">
-        <v>-117</v>
-      </c>
-      <c r="BJ2">
-        <v>-117</v>
-      </c>
-      <c r="BK2">
-        <v>-117</v>
-      </c>
-      <c r="BL2">
-        <v>-117</v>
-      </c>
-      <c r="BM2">
-        <v>-117</v>
-      </c>
-      <c r="BN2">
-        <v>-117</v>
-      </c>
-      <c r="BO2">
-        <v>-117</v>
-      </c>
-      <c r="BP2">
-        <v>-117</v>
-      </c>
-      <c r="BQ2">
-        <v>-117</v>
-      </c>
-      <c r="BR2">
-        <v>-117</v>
-      </c>
-      <c r="BS2">
-        <v>-117</v>
-      </c>
-      <c r="BT2">
-        <v>-117</v>
-      </c>
-      <c r="BU2">
-        <v>-117</v>
-      </c>
-      <c r="BV2">
-        <v>-117</v>
-      </c>
-      <c r="BW2">
-        <v>-117</v>
-      </c>
-      <c r="BX2">
-        <v>-117</v>
-      </c>
-      <c r="BY2">
-        <v>-117</v>
-      </c>
-      <c r="BZ2">
-        <v>-117</v>
-      </c>
-      <c r="CA2">
-        <v>-117</v>
-      </c>
-      <c r="CB2">
-        <v>-117</v>
-      </c>
-      <c r="CC2">
-        <v>-117</v>
-      </c>
-      <c r="CD2">
-        <v>-117</v>
-      </c>
-      <c r="CE2">
-        <v>-117</v>
-      </c>
-      <c r="CF2">
-        <v>-117</v>
-      </c>
-      <c r="CG2">
-        <v>-117</v>
-      </c>
-      <c r="CH2">
-        <v>-117</v>
-      </c>
-      <c r="CI2">
-        <v>-117</v>
-      </c>
-      <c r="CJ2">
-        <v>-117</v>
-      </c>
-      <c r="CK2">
-        <v>-117</v>
-      </c>
       <c r="CL2">
-        <v>-116</v>
+        <v>-117</v>
       </c>
       <c r="CM2">
         <v>-117</v>
@@ -1363,7 +1359,7 @@
         <v>-117</v>
       </c>
       <c r="CU2">
-        <v>-117</v>
+        <v>-118</v>
       </c>
       <c r="CV2">
         <v>-118</v>
@@ -1372,15 +1368,12 @@
         <v>-118</v>
       </c>
       <c r="CX2">
-        <v>-118</v>
+        <v>-117</v>
       </c>
       <c r="CY2">
-        <v>-117</v>
+        <v>-118</v>
       </c>
       <c r="CZ2">
-        <v>-118</v>
-      </c>
-      <c r="DA2">
         <v>-117</v>
       </c>
     </row>
